--- a/data/pca/factorExposure/factorExposure_2014-08-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007116630088025502</v>
+        <v>0.01871673239245067</v>
       </c>
       <c r="C2">
-        <v>-0.1183202305484203</v>
+        <v>-0.06700802527494641</v>
       </c>
       <c r="D2">
-        <v>-0.02936367626369504</v>
+        <v>-0.03128164154390291</v>
       </c>
       <c r="E2">
-        <v>-0.2176801430402177</v>
+        <v>-0.03043562282729747</v>
       </c>
       <c r="F2">
-        <v>-0.03353964974820828</v>
+        <v>-0.07234262626611418</v>
       </c>
       <c r="G2">
-        <v>0.07970810145463648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1473163233050026</v>
+      </c>
+      <c r="H2">
+        <v>0.01584385767557098</v>
+      </c>
+      <c r="I2">
+        <v>0.03976349470972855</v>
+      </c>
+      <c r="J2">
+        <v>0.1183286496526152</v>
+      </c>
+      <c r="K2">
+        <v>0.03405704798213003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.019599845063081</v>
+        <v>0.01877743740820715</v>
       </c>
       <c r="C4">
-        <v>-0.1661649031040544</v>
+        <v>-0.143360824090536</v>
       </c>
       <c r="D4">
-        <v>-0.0375197756323556</v>
+        <v>-0.06549859072546237</v>
       </c>
       <c r="E4">
-        <v>-0.04727496802503888</v>
+        <v>-0.01718725813038041</v>
       </c>
       <c r="F4">
-        <v>0.06654390764574059</v>
+        <v>0.02788165052300439</v>
       </c>
       <c r="G4">
-        <v>-0.02284238397382075</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.07122847103016482</v>
+      </c>
+      <c r="H4">
+        <v>-0.03395728965972385</v>
+      </c>
+      <c r="I4">
+        <v>0.09252046030976473</v>
+      </c>
+      <c r="J4">
+        <v>0.04157121439605217</v>
+      </c>
+      <c r="K4">
+        <v>-0.01162783627113606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02335955275394861</v>
+        <v>0.0392756141672465</v>
       </c>
       <c r="C6">
-        <v>-0.07740116879652177</v>
+        <v>-0.08487445566493537</v>
       </c>
       <c r="D6">
-        <v>-0.05793265592747623</v>
+        <v>-0.02735366363681323</v>
       </c>
       <c r="E6">
-        <v>-0.05700668402059472</v>
+        <v>-0.02314776968326673</v>
       </c>
       <c r="F6">
-        <v>0.006745633642885667</v>
+        <v>-0.05137679831995572</v>
       </c>
       <c r="G6">
-        <v>-0.04634759401165193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.008720939438463427</v>
+      </c>
+      <c r="H6">
+        <v>-0.06197501726445064</v>
+      </c>
+      <c r="I6">
+        <v>0.02375283714163915</v>
+      </c>
+      <c r="J6">
+        <v>-0.04395232491649958</v>
+      </c>
+      <c r="K6">
+        <v>0.03464817741513455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.006506160514408429</v>
+        <v>0.01911783382774548</v>
       </c>
       <c r="C7">
-        <v>-0.06884017754890957</v>
+        <v>-0.07045721606551139</v>
       </c>
       <c r="D7">
-        <v>-0.03756164747831348</v>
+        <v>-0.03177970965192804</v>
       </c>
       <c r="E7">
-        <v>-0.0129215015365338</v>
+        <v>-0.01015267335174969</v>
       </c>
       <c r="F7">
-        <v>0.0257354003976092</v>
+        <v>0.01467543243927624</v>
       </c>
       <c r="G7">
-        <v>-0.03893673985559545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.003829879594348835</v>
+      </c>
+      <c r="H7">
+        <v>-0.03805083434936486</v>
+      </c>
+      <c r="I7">
+        <v>0.0826712927319604</v>
+      </c>
+      <c r="J7">
+        <v>0.0583122349030479</v>
+      </c>
+      <c r="K7">
+        <v>0.02201804554576366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01129087854826035</v>
+        <v>0.001384779739829466</v>
       </c>
       <c r="C8">
-        <v>-0.07331834943031318</v>
+        <v>-0.06121962573327472</v>
       </c>
       <c r="D8">
-        <v>-0.04542660677917543</v>
+        <v>-0.04917011732396746</v>
       </c>
       <c r="E8">
-        <v>-0.05701795591443962</v>
+        <v>-0.0558927544916179</v>
       </c>
       <c r="F8">
-        <v>0.01340651553724785</v>
+        <v>-0.02751256308174366</v>
       </c>
       <c r="G8">
-        <v>0.0161772577076723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.03982560983539273</v>
+      </c>
+      <c r="H8">
+        <v>0.006104305345220206</v>
+      </c>
+      <c r="I8">
+        <v>0.05451744258783576</v>
+      </c>
+      <c r="J8">
+        <v>-0.01308351652605722</v>
+      </c>
+      <c r="K8">
+        <v>-0.009509186146415417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01197470462000376</v>
+        <v>0.0135525865718063</v>
       </c>
       <c r="C9">
-        <v>-0.1190762297658281</v>
+        <v>-0.1010183826684845</v>
       </c>
       <c r="D9">
-        <v>-0.0504769949285153</v>
+        <v>-0.04033113878570076</v>
       </c>
       <c r="E9">
-        <v>-0.01446890325256983</v>
+        <v>0.00907857564388634</v>
       </c>
       <c r="F9">
-        <v>0.007290782996373137</v>
+        <v>0.01224305030141121</v>
       </c>
       <c r="G9">
-        <v>-0.0367455668790332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04925912300163419</v>
+      </c>
+      <c r="H9">
+        <v>-0.01954673900478009</v>
+      </c>
+      <c r="I9">
+        <v>0.09806908075851002</v>
+      </c>
+      <c r="J9">
+        <v>0.05050254327134854</v>
+      </c>
+      <c r="K9">
+        <v>0.01505895621735964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2639955612963246</v>
+        <v>0.2477136393167002</v>
       </c>
       <c r="C10">
-        <v>0.07998878026694162</v>
+        <v>0.09606073084042398</v>
       </c>
       <c r="D10">
-        <v>0.02368000795737761</v>
+        <v>0.002036440064501099</v>
       </c>
       <c r="E10">
-        <v>0.04188003413917329</v>
+        <v>-0.05079802401326838</v>
       </c>
       <c r="F10">
-        <v>0.01356530889168792</v>
+        <v>-0.03009010353452221</v>
       </c>
       <c r="G10">
-        <v>0.0185488515496835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.0320913679801481</v>
+      </c>
+      <c r="H10">
+        <v>-0.02318803534140968</v>
+      </c>
+      <c r="I10">
+        <v>0.03135044802519756</v>
+      </c>
+      <c r="J10">
+        <v>-0.001053131561604583</v>
+      </c>
+      <c r="K10">
+        <v>-0.1560265381460137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.005669694360552008</v>
+        <v>0.01741067240177635</v>
       </c>
       <c r="C11">
-        <v>-0.06834022657704901</v>
+        <v>-0.07981742585655519</v>
       </c>
       <c r="D11">
-        <v>-0.03166103648652219</v>
+        <v>-0.03831734380215496</v>
       </c>
       <c r="E11">
-        <v>0.02151417067290633</v>
+        <v>0.01118199826986706</v>
       </c>
       <c r="F11">
-        <v>0.008322904058300218</v>
+        <v>0.01134612926477128</v>
       </c>
       <c r="G11">
-        <v>-0.04461772192163432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.001429274728631081</v>
+      </c>
+      <c r="H11">
+        <v>-0.01208992425932342</v>
+      </c>
+      <c r="I11">
+        <v>0.03361283183649863</v>
+      </c>
+      <c r="J11">
+        <v>0.01359856606562702</v>
+      </c>
+      <c r="K11">
+        <v>0.0274913456100933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.003932946102452135</v>
+        <v>0.01687008213248934</v>
       </c>
       <c r="C12">
-        <v>-0.04572112749057011</v>
+        <v>-0.05216412101881727</v>
       </c>
       <c r="D12">
-        <v>-0.03680978125517147</v>
+        <v>-0.02566815742360522</v>
       </c>
       <c r="E12">
-        <v>0.007803717493575396</v>
+        <v>0.01234699585151594</v>
       </c>
       <c r="F12">
-        <v>-0.01837821261372054</v>
+        <v>-0.01344121495215483</v>
       </c>
       <c r="G12">
-        <v>-0.05103220546525328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004376103819247244</v>
+      </c>
+      <c r="H12">
+        <v>-0.02783037699987922</v>
+      </c>
+      <c r="I12">
+        <v>0.0292330816570556</v>
+      </c>
+      <c r="J12">
+        <v>0.005437274991131762</v>
+      </c>
+      <c r="K12">
+        <v>0.012701638179646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01160116304951269</v>
+        <v>0.004481053603633201</v>
       </c>
       <c r="C13">
-        <v>-0.1219202659290427</v>
+        <v>-0.1109604164236618</v>
       </c>
       <c r="D13">
-        <v>-0.08276737251530855</v>
+        <v>-0.04121876169161625</v>
       </c>
       <c r="E13">
-        <v>-0.06853314135565314</v>
+        <v>-0.01316027846973798</v>
       </c>
       <c r="F13">
-        <v>-0.06533068793823442</v>
+        <v>-0.1289018389015565</v>
       </c>
       <c r="G13">
-        <v>-0.1325106436598002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1011363875169534</v>
+      </c>
+      <c r="H13">
+        <v>-0.1284126692845597</v>
+      </c>
+      <c r="I13">
+        <v>0.05969827795438289</v>
+      </c>
+      <c r="J13">
+        <v>0.2010930403543068</v>
+      </c>
+      <c r="K13">
+        <v>-0.1319285569472356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01104436142693626</v>
+        <v>0.02070547168491239</v>
       </c>
       <c r="C14">
-        <v>-0.07378419940659474</v>
+        <v>-0.07271069938044539</v>
       </c>
       <c r="D14">
-        <v>-0.04532970447275677</v>
+        <v>-0.04841742910683212</v>
       </c>
       <c r="E14">
-        <v>-0.03711452513571752</v>
+        <v>0.001780687646344781</v>
       </c>
       <c r="F14">
-        <v>-0.02993127083066578</v>
+        <v>-0.04419627478723067</v>
       </c>
       <c r="G14">
-        <v>-0.08063407013902764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.003480146435929187</v>
+      </c>
+      <c r="H14">
+        <v>-0.1167431856160934</v>
+      </c>
+      <c r="I14">
+        <v>0.1708927804834469</v>
+      </c>
+      <c r="J14">
+        <v>0.06286822300544606</v>
+      </c>
+      <c r="K14">
+        <v>0.01666047652902926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.009009349725517181</v>
+        <v>0.004108304670922157</v>
       </c>
       <c r="C15">
-        <v>-0.06977095677283472</v>
+        <v>-0.06947546187053023</v>
       </c>
       <c r="D15">
-        <v>-0.03356645559918459</v>
+        <v>-0.03081391520418808</v>
       </c>
       <c r="E15">
-        <v>-0.04493579357189002</v>
+        <v>-0.02573829453478403</v>
       </c>
       <c r="F15">
-        <v>0.02430421880804677</v>
+        <v>0.003537957555638634</v>
       </c>
       <c r="G15">
-        <v>-0.01560110612824493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.0245051053393077</v>
+      </c>
+      <c r="H15">
+        <v>-0.02975909737478226</v>
+      </c>
+      <c r="I15">
+        <v>0.07210175336889499</v>
+      </c>
+      <c r="J15">
+        <v>0.01661420945527698</v>
+      </c>
+      <c r="K15">
+        <v>0.02679848582939597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.00788725423671334</v>
+        <v>0.01632021067729543</v>
       </c>
       <c r="C16">
-        <v>-0.0562760083504354</v>
+        <v>-0.06027781339868259</v>
       </c>
       <c r="D16">
-        <v>-0.02830630946275892</v>
+        <v>-0.02689309560094872</v>
       </c>
       <c r="E16">
-        <v>0.01509514251063291</v>
+        <v>0.01111418385674761</v>
       </c>
       <c r="F16">
-        <v>-0.004503241494594847</v>
+        <v>0.006872351653749865</v>
       </c>
       <c r="G16">
-        <v>-0.02660553019891832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0003247243470581862</v>
+      </c>
+      <c r="H16">
+        <v>-0.01008804798989132</v>
+      </c>
+      <c r="I16">
+        <v>0.02360429366069618</v>
+      </c>
+      <c r="J16">
+        <v>0.008182580926768296</v>
+      </c>
+      <c r="K16">
+        <v>0.01895616089654873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01237966129665874</v>
+        <v>0.01548057952537185</v>
       </c>
       <c r="C20">
-        <v>-0.08994551821267172</v>
+        <v>-0.08287790107492664</v>
       </c>
       <c r="D20">
-        <v>-0.04235497333341583</v>
+        <v>-0.02684844395306204</v>
       </c>
       <c r="E20">
-        <v>0.02614413808261334</v>
+        <v>-0.01093543997171281</v>
       </c>
       <c r="F20">
-        <v>-0.001636419404056411</v>
+        <v>0.02244626902199347</v>
       </c>
       <c r="G20">
-        <v>-0.09715986743096015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.009080377372474002</v>
+      </c>
+      <c r="H20">
+        <v>-0.04944980694921689</v>
+      </c>
+      <c r="I20">
+        <v>0.07249177249974903</v>
+      </c>
+      <c r="J20">
+        <v>0.01143899128010997</v>
+      </c>
+      <c r="K20">
+        <v>0.01356557950230908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.001042069024988977</v>
+        <v>0.01357154105964991</v>
       </c>
       <c r="C21">
-        <v>-0.08909281133525679</v>
+        <v>-0.06908780674723101</v>
       </c>
       <c r="D21">
-        <v>0.00945891805385077</v>
+        <v>-0.0196640378651415</v>
       </c>
       <c r="E21">
-        <v>-0.04496260941850826</v>
+        <v>-0.009865540536707225</v>
       </c>
       <c r="F21">
-        <v>-0.06912294062128795</v>
+        <v>-0.09822452981902016</v>
       </c>
       <c r="G21">
-        <v>-0.02480817509252462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.003229823192912624</v>
+      </c>
+      <c r="H21">
+        <v>-0.03497672324935531</v>
+      </c>
+      <c r="I21">
+        <v>0.1166096339221041</v>
+      </c>
+      <c r="J21">
+        <v>0.07997766721005947</v>
+      </c>
+      <c r="K21">
+        <v>-0.0001415101504458543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.01462766443681301</v>
+        <v>0.006774776486765966</v>
       </c>
       <c r="C22">
-        <v>-0.2403637419140448</v>
+        <v>-0.1733502403790487</v>
       </c>
       <c r="D22">
-        <v>0.07481629775118442</v>
+        <v>-0.02117345936730518</v>
       </c>
       <c r="E22">
-        <v>-0.2929537845545115</v>
+        <v>-0.2125585073910444</v>
       </c>
       <c r="F22">
-        <v>0.3319753422984966</v>
+        <v>0.01150262693088803</v>
       </c>
       <c r="G22">
-        <v>0.06076942877859816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.4712285432941223</v>
+      </c>
+      <c r="H22">
+        <v>0.0271555959736817</v>
+      </c>
+      <c r="I22">
+        <v>-0.3169717087711741</v>
+      </c>
+      <c r="J22">
+        <v>-0.1052512668743838</v>
+      </c>
+      <c r="K22">
+        <v>0.01910882091305709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.01555968125247166</v>
+        <v>0.01192989267552831</v>
       </c>
       <c r="C23">
-        <v>-0.2443304469475819</v>
+        <v>-0.1767733058887372</v>
       </c>
       <c r="D23">
-        <v>0.07947314987667881</v>
+        <v>-0.02076292461951095</v>
       </c>
       <c r="E23">
-        <v>-0.2878169845514195</v>
+        <v>-0.2029753396856958</v>
       </c>
       <c r="F23">
-        <v>0.3270404038425022</v>
+        <v>0.01098416221171188</v>
       </c>
       <c r="G23">
-        <v>0.06086747357729719</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.4605206642290723</v>
+      </c>
+      <c r="H23">
+        <v>0.02432359626313798</v>
+      </c>
+      <c r="I23">
+        <v>-0.2947857883582072</v>
+      </c>
+      <c r="J23">
+        <v>-0.09763506123014538</v>
+      </c>
+      <c r="K23">
+        <v>0.02386242821336627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.005534481812747898</v>
+        <v>0.01691536796283467</v>
       </c>
       <c r="C24">
-        <v>-0.05758621884149916</v>
+        <v>-0.06302774967310157</v>
       </c>
       <c r="D24">
-        <v>-0.04380430947845686</v>
+        <v>-0.03993256401493898</v>
       </c>
       <c r="E24">
-        <v>0.01053263851726756</v>
+        <v>0.00868275367547232</v>
       </c>
       <c r="F24">
-        <v>0.003223858502039371</v>
+        <v>0.009087465076521821</v>
       </c>
       <c r="G24">
-        <v>-0.05889891483466113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.001547544366685586</v>
+      </c>
+      <c r="H24">
+        <v>-0.02713558657918656</v>
+      </c>
+      <c r="I24">
+        <v>0.03848172503346048</v>
+      </c>
+      <c r="J24">
+        <v>0.0203237819692497</v>
+      </c>
+      <c r="K24">
+        <v>0.02460442578687675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.006690285051381024</v>
+        <v>0.02099518631911784</v>
       </c>
       <c r="C25">
-        <v>-0.06596481632990887</v>
+        <v>-0.0656060604330457</v>
       </c>
       <c r="D25">
-        <v>-0.02320432412373458</v>
+        <v>-0.03236126678320292</v>
       </c>
       <c r="E25">
-        <v>0.0166834057656279</v>
+        <v>0.007807843561923218</v>
       </c>
       <c r="F25">
-        <v>-0.003043699421688672</v>
+        <v>0.009380944362761535</v>
       </c>
       <c r="G25">
-        <v>-0.05403087800742237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.005082035335977052</v>
+      </c>
+      <c r="H25">
+        <v>-0.01858635080550575</v>
+      </c>
+      <c r="I25">
+        <v>0.0346503981489029</v>
+      </c>
+      <c r="J25">
+        <v>0.01935151372413128</v>
+      </c>
+      <c r="K25">
+        <v>0.01185005748437006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.006466342075647329</v>
+        <v>0.02256929529579305</v>
       </c>
       <c r="C26">
-        <v>-0.04956816047789733</v>
+        <v>-0.05553032712185765</v>
       </c>
       <c r="D26">
-        <v>-0.078418924266482</v>
+        <v>-0.06247790929605059</v>
       </c>
       <c r="E26">
-        <v>-0.0005173939907456152</v>
+        <v>0.008096864965702508</v>
       </c>
       <c r="F26">
-        <v>-0.02754704813156384</v>
+        <v>0.01340857630961944</v>
       </c>
       <c r="G26">
-        <v>-0.06358284875000525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.000468742924414221</v>
+      </c>
+      <c r="H26">
+        <v>-0.006794628544046195</v>
+      </c>
+      <c r="I26">
+        <v>0.0996174477678172</v>
+      </c>
+      <c r="J26">
+        <v>0.07581806606217979</v>
+      </c>
+      <c r="K26">
+        <v>0.05993167022573219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3650586464188895</v>
+        <v>0.3100984618701</v>
       </c>
       <c r="C28">
-        <v>0.08568057117213326</v>
+        <v>0.114269094541732</v>
       </c>
       <c r="D28">
-        <v>0.01903166663908233</v>
+        <v>0.03293321664893856</v>
       </c>
       <c r="E28">
-        <v>0.0517585214859509</v>
+        <v>-0.02825119547044736</v>
       </c>
       <c r="F28">
-        <v>-0.06069563011367073</v>
+        <v>-0.02053594134816402</v>
       </c>
       <c r="G28">
-        <v>0.08735243475231411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.04117586697822624</v>
+      </c>
+      <c r="H28">
+        <v>0.1038775205832307</v>
+      </c>
+      <c r="I28">
+        <v>0.0690292026082735</v>
+      </c>
+      <c r="J28">
+        <v>0.03362935315694863</v>
+      </c>
+      <c r="K28">
+        <v>-0.2092533987978743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.01009665019959948</v>
+        <v>0.01674504366308767</v>
       </c>
       <c r="C29">
-        <v>-0.07977461613258509</v>
+        <v>-0.08283848890088107</v>
       </c>
       <c r="D29">
-        <v>-0.05030763697370513</v>
+        <v>-0.04987408631768792</v>
       </c>
       <c r="E29">
-        <v>-0.01891370062100717</v>
+        <v>0.02214033713029543</v>
       </c>
       <c r="F29">
-        <v>-0.03349243648228334</v>
+        <v>-0.03979370129295822</v>
       </c>
       <c r="G29">
-        <v>-0.1145413788820797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.005068026573186545</v>
+      </c>
+      <c r="H29">
+        <v>-0.1725610031412009</v>
+      </c>
+      <c r="I29">
+        <v>0.2408539773621455</v>
+      </c>
+      <c r="J29">
+        <v>0.08588179970401479</v>
+      </c>
+      <c r="K29">
+        <v>0.002175692336628816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02658653302000967</v>
+        <v>0.03344337472009092</v>
       </c>
       <c r="C30">
-        <v>-0.1711749138758256</v>
+        <v>-0.1433371788966228</v>
       </c>
       <c r="D30">
-        <v>-0.07451804624337147</v>
+        <v>-0.05616596959658832</v>
       </c>
       <c r="E30">
-        <v>-0.03217690988305211</v>
+        <v>-0.04048832485638209</v>
       </c>
       <c r="F30">
-        <v>0.05240279322172487</v>
+        <v>0.001059420248948355</v>
       </c>
       <c r="G30">
-        <v>-0.03597742947017322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.04333713529413799</v>
+      </c>
+      <c r="H30">
+        <v>-0.01910038866452905</v>
+      </c>
+      <c r="I30">
+        <v>0.03911581364909616</v>
+      </c>
+      <c r="J30">
+        <v>-0.00730932462107963</v>
+      </c>
+      <c r="K30">
+        <v>0.04458711351525978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.003481308199341672</v>
+        <v>0.01482297493187514</v>
       </c>
       <c r="C31">
-        <v>-0.04997293202861518</v>
+        <v>-0.07722757858461207</v>
       </c>
       <c r="D31">
-        <v>-0.03448820704908492</v>
+        <v>-0.04163124844866485</v>
       </c>
       <c r="E31">
-        <v>0.01551023129781466</v>
+        <v>-0.0009794316707036361</v>
       </c>
       <c r="F31">
-        <v>-0.00995622258435795</v>
+        <v>0.0007900002332499457</v>
       </c>
       <c r="G31">
-        <v>-0.0129183369054371</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.009195935951440174</v>
+      </c>
+      <c r="H31">
+        <v>0.0196204419206747</v>
+      </c>
+      <c r="I31">
+        <v>0.04425245323019957</v>
+      </c>
+      <c r="J31">
+        <v>0.008749969940587543</v>
+      </c>
+      <c r="K31">
+        <v>0.01130317388338569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0200768350927691</v>
+        <v>0.02171650596753321</v>
       </c>
       <c r="C32">
-        <v>-0.07575289694101561</v>
+        <v>-0.05028608076184542</v>
       </c>
       <c r="D32">
-        <v>-0.008656493279738038</v>
+        <v>-0.02407310738589211</v>
       </c>
       <c r="E32">
-        <v>-0.1532417241525594</v>
+        <v>-0.00931646715139213</v>
       </c>
       <c r="F32">
-        <v>0.008164340990168526</v>
+        <v>-0.06985910067797363</v>
       </c>
       <c r="G32">
-        <v>-0.08010345106458325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.09009119277887782</v>
+      </c>
+      <c r="H32">
+        <v>-0.0945765817494521</v>
+      </c>
+      <c r="I32">
+        <v>0.1231405246366667</v>
+      </c>
+      <c r="J32">
+        <v>0.1115396117754055</v>
+      </c>
+      <c r="K32">
+        <v>-0.2531381021056599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.01155325228299067</v>
+        <v>0.01702466025805415</v>
       </c>
       <c r="C33">
-        <v>-0.0903865660389957</v>
+        <v>-0.1023745786650047</v>
       </c>
       <c r="D33">
-        <v>-0.06650687136139682</v>
+        <v>-0.05247769581616942</v>
       </c>
       <c r="E33">
-        <v>-0.01199969264958523</v>
+        <v>-0.0113399272859252</v>
       </c>
       <c r="F33">
-        <v>-0.01159137306082639</v>
+        <v>0.005905061448459941</v>
       </c>
       <c r="G33">
-        <v>-0.04603577030207888</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02002596981921376</v>
+      </c>
+      <c r="H33">
+        <v>-0.03309489468176285</v>
+      </c>
+      <c r="I33">
+        <v>0.0539849983967722</v>
+      </c>
+      <c r="J33">
+        <v>0.0289494846017638</v>
+      </c>
+      <c r="K33">
+        <v>-0.01793017511551736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002692928611425268</v>
+        <v>0.01769551562943914</v>
       </c>
       <c r="C34">
-        <v>-0.05187982423890522</v>
+        <v>-0.04955954816021014</v>
       </c>
       <c r="D34">
-        <v>-0.02264033518375007</v>
+        <v>-0.02073401361727946</v>
       </c>
       <c r="E34">
-        <v>0.003228387428457252</v>
+        <v>0.01147549240849213</v>
       </c>
       <c r="F34">
-        <v>-0.01944323453138609</v>
+        <v>0.001365637475145782</v>
       </c>
       <c r="G34">
-        <v>-0.03485787105097277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00434484910766568</v>
+      </c>
+      <c r="H34">
+        <v>-0.02344831030798043</v>
+      </c>
+      <c r="I34">
+        <v>0.01445100796072068</v>
+      </c>
+      <c r="J34">
+        <v>-0.01889380057227076</v>
+      </c>
+      <c r="K34">
+        <v>0.01271429759497895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.003442724091469273</v>
+        <v>0.01029860580770842</v>
       </c>
       <c r="C35">
-        <v>-0.02914282107507753</v>
+        <v>-0.04555159341544174</v>
       </c>
       <c r="D35">
-        <v>-0.009123645100001103</v>
+        <v>-0.02172664943974181</v>
       </c>
       <c r="E35">
-        <v>-0.007185491130633965</v>
+        <v>-0.004410622844124511</v>
       </c>
       <c r="F35">
-        <v>-0.00966865593681376</v>
+        <v>-0.01194901194047106</v>
       </c>
       <c r="G35">
-        <v>-0.04070778263508412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.004601170470270159</v>
+      </c>
+      <c r="H35">
+        <v>-0.0773015782884362</v>
+      </c>
+      <c r="I35">
+        <v>0.1385197075292078</v>
+      </c>
+      <c r="J35">
+        <v>0.02610095124789125</v>
+      </c>
+      <c r="K35">
+        <v>-0.01793658145106293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.009313418912528532</v>
+        <v>0.01377197732985406</v>
       </c>
       <c r="C36">
-        <v>-0.05462534456637107</v>
+        <v>-0.04600168879947953</v>
       </c>
       <c r="D36">
-        <v>-0.06086392248024424</v>
+        <v>-0.04413257869078583</v>
       </c>
       <c r="E36">
-        <v>0.004629566224913763</v>
+        <v>-0.01175599209213131</v>
       </c>
       <c r="F36">
-        <v>-0.0124130007762024</v>
+        <v>0.0006921467328018008</v>
       </c>
       <c r="G36">
-        <v>-0.0449647369608563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01447205357547845</v>
+      </c>
+      <c r="H36">
+        <v>-0.007208401534875243</v>
+      </c>
+      <c r="I36">
+        <v>0.07553190052651955</v>
+      </c>
+      <c r="J36">
+        <v>0.05450594507414201</v>
+      </c>
+      <c r="K36">
+        <v>0.0189508050624635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.03295671831744711</v>
+        <v>0.0093608925841517</v>
       </c>
       <c r="C38">
-        <v>-0.05076540178898354</v>
+        <v>-0.05805872464100813</v>
       </c>
       <c r="D38">
-        <v>-0.04367948138398255</v>
+        <v>-0.03826362387834686</v>
       </c>
       <c r="E38">
-        <v>0.008728543974590545</v>
+        <v>-0.04763646453205703</v>
       </c>
       <c r="F38">
-        <v>-0.01209780778231658</v>
+        <v>0.01818298764874549</v>
       </c>
       <c r="G38">
-        <v>-0.05307327279458092</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.003522446081254911</v>
+      </c>
+      <c r="H38">
+        <v>-0.02630285629560645</v>
+      </c>
+      <c r="I38">
+        <v>0.06744981332360796</v>
+      </c>
+      <c r="J38">
+        <v>0.03545494991605117</v>
+      </c>
+      <c r="K38">
+        <v>-0.06117449077407806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.004294906568277619</v>
+        <v>0.02458472208364776</v>
       </c>
       <c r="C39">
-        <v>-0.125253892734889</v>
+        <v>-0.1326409426699462</v>
       </c>
       <c r="D39">
-        <v>-0.06060533792373704</v>
+        <v>-0.05957554300165428</v>
       </c>
       <c r="E39">
-        <v>0.006596610850122342</v>
+        <v>-0.001751562479600184</v>
       </c>
       <c r="F39">
-        <v>-0.01412695645009912</v>
+        <v>-0.01050060243186049</v>
       </c>
       <c r="G39">
-        <v>-0.08059745744893972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01872723757820772</v>
+      </c>
+      <c r="H39">
+        <v>-0.04922410882521573</v>
+      </c>
+      <c r="I39">
+        <v>0.0439854353788557</v>
+      </c>
+      <c r="J39">
+        <v>-0.01221730773689033</v>
+      </c>
+      <c r="K39">
+        <v>0.09068115817951287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.005949167428970537</v>
+        <v>0.01457706125184396</v>
       </c>
       <c r="C40">
-        <v>-0.03424456022079387</v>
+        <v>-0.05791654853671459</v>
       </c>
       <c r="D40">
-        <v>-0.03230432215309879</v>
+        <v>-0.04459721682188553</v>
       </c>
       <c r="E40">
-        <v>-0.1266697370122779</v>
+        <v>-0.002654128763937618</v>
       </c>
       <c r="F40">
-        <v>0.06566897357026655</v>
+        <v>-0.03309692868098696</v>
       </c>
       <c r="G40">
-        <v>-0.0945965068930102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02188355193206753</v>
+      </c>
+      <c r="H40">
+        <v>-0.155227111078363</v>
+      </c>
+      <c r="I40">
+        <v>0.006196777209896041</v>
+      </c>
+      <c r="J40">
+        <v>0.02244524236856749</v>
+      </c>
+      <c r="K40">
+        <v>0.03456295286949092</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01067001967052387</v>
+        <v>0.02178166883904894</v>
       </c>
       <c r="C41">
-        <v>-0.0221268527892074</v>
+        <v>-0.0471164012066096</v>
       </c>
       <c r="D41">
-        <v>-0.004630219594805552</v>
+        <v>-0.01516308968068426</v>
       </c>
       <c r="E41">
-        <v>0.004704877458435769</v>
+        <v>0.006908493401168381</v>
       </c>
       <c r="F41">
-        <v>-0.01145371744262244</v>
+        <v>0.002304225039742868</v>
       </c>
       <c r="G41">
-        <v>0.04080415037843192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01304180823417411</v>
+      </c>
+      <c r="H41">
+        <v>0.005127204001691165</v>
+      </c>
+      <c r="I41">
+        <v>0.02117406053080425</v>
+      </c>
+      <c r="J41">
+        <v>0.02225771239029038</v>
+      </c>
+      <c r="K41">
+        <v>-0.02655782566350428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005084777884362963</v>
+        <v>0.01886272113593916</v>
       </c>
       <c r="C43">
-        <v>-0.02305264740066024</v>
+        <v>-0.04391606934576956</v>
       </c>
       <c r="D43">
-        <v>-0.02300211934824755</v>
+        <v>-0.0292573172424987</v>
       </c>
       <c r="E43">
-        <v>0.004575531986399703</v>
+        <v>-0.00451370075746134</v>
       </c>
       <c r="F43">
-        <v>7.323409191375895e-06</v>
+        <v>0.01115361512465446</v>
       </c>
       <c r="G43">
-        <v>0.002084588314334624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008848308616347954</v>
+      </c>
+      <c r="H43">
+        <v>-0.009026861461693401</v>
+      </c>
+      <c r="I43">
+        <v>0.03204156110717283</v>
+      </c>
+      <c r="J43">
+        <v>0.02300137261587028</v>
+      </c>
+      <c r="K43">
+        <v>0.003354472724964117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.02088275093916961</v>
+        <v>0.0162492647485255</v>
       </c>
       <c r="C44">
-        <v>-0.1004267790052261</v>
+        <v>-0.09710024565948402</v>
       </c>
       <c r="D44">
-        <v>-0.03657400657395608</v>
+        <v>-0.05841103309485675</v>
       </c>
       <c r="E44">
-        <v>-0.02822265382967104</v>
+        <v>-0.05191617133327231</v>
       </c>
       <c r="F44">
-        <v>0.02755064172980453</v>
+        <v>0.01257912718931604</v>
       </c>
       <c r="G44">
-        <v>-0.06892922832948531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.05105195741793934</v>
+      </c>
+      <c r="H44">
+        <v>-0.0546016900590453</v>
+      </c>
+      <c r="I44">
+        <v>0.03488620970015521</v>
+      </c>
+      <c r="J44">
+        <v>0.03292598799905289</v>
+      </c>
+      <c r="K44">
+        <v>0.05077124794389305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.003476189939365085</v>
+        <v>0.004589487484177827</v>
       </c>
       <c r="C46">
-        <v>-0.05947520798123248</v>
+        <v>-0.06393526275034452</v>
       </c>
       <c r="D46">
-        <v>-0.04771442603600332</v>
+        <v>-0.02847502535669811</v>
       </c>
       <c r="E46">
-        <v>-0.02033841019257527</v>
+        <v>-0.003165973463557705</v>
       </c>
       <c r="F46">
-        <v>-0.01066895276051022</v>
+        <v>-0.007276343261865171</v>
       </c>
       <c r="G46">
-        <v>-0.05413645895501548</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.006421722699839151</v>
+      </c>
+      <c r="H46">
+        <v>-0.05065586273887966</v>
+      </c>
+      <c r="I46">
+        <v>0.07765331685660734</v>
+      </c>
+      <c r="J46">
+        <v>0.05958795951062354</v>
+      </c>
+      <c r="K46">
+        <v>0.01560137681615216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.005700565886356238</v>
+        <v>0.02200628654370416</v>
       </c>
       <c r="C47">
-        <v>-0.05687071684461881</v>
+        <v>-0.07262170819305097</v>
       </c>
       <c r="D47">
-        <v>-0.05725311089455837</v>
+        <v>-0.04331005496473127</v>
       </c>
       <c r="E47">
-        <v>0.01848307852239553</v>
+        <v>0.01550993882328481</v>
       </c>
       <c r="F47">
-        <v>-0.05110418188961951</v>
+        <v>0.003737486574535608</v>
       </c>
       <c r="G47">
-        <v>-0.0249645576834048</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006460084614557769</v>
+      </c>
+      <c r="H47">
+        <v>-0.01422573516510823</v>
+      </c>
+      <c r="I47">
+        <v>0.06490595917647009</v>
+      </c>
+      <c r="J47">
+        <v>0.03707948959793695</v>
+      </c>
+      <c r="K47">
+        <v>-0.01600185555708157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.00652490114920363</v>
+        <v>0.01627970157763764</v>
       </c>
       <c r="C48">
-        <v>-0.0552710073866753</v>
+        <v>-0.04466879330775978</v>
       </c>
       <c r="D48">
-        <v>-0.06706502727253059</v>
+        <v>-0.05257203424296802</v>
       </c>
       <c r="E48">
-        <v>0.01073736787804599</v>
+        <v>0.0002276007524125606</v>
       </c>
       <c r="F48">
-        <v>0.002100744910528324</v>
+        <v>0.01479909119220787</v>
       </c>
       <c r="G48">
-        <v>-0.05195143983027413</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02373682873008195</v>
+      </c>
+      <c r="H48">
+        <v>-0.009294537676918714</v>
+      </c>
+      <c r="I48">
+        <v>0.1027707721435685</v>
+      </c>
+      <c r="J48">
+        <v>0.0731860557667678</v>
+      </c>
+      <c r="K48">
+        <v>0.03973238253738293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02057520322795407</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04764097768805076</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008743477112316721</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02981791224818904</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.0166129161337095</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.07330640564966612</v>
+      </c>
+      <c r="H49">
+        <v>-0.05506151884562949</v>
+      </c>
+      <c r="I49">
+        <v>-0.03151107274927548</v>
+      </c>
+      <c r="J49">
+        <v>-0.1014720696774346</v>
+      </c>
+      <c r="K49">
+        <v>0.05100571045684943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0003876670765008694</v>
+        <v>0.0154838312475609</v>
       </c>
       <c r="C50">
-        <v>-0.06361981019717816</v>
+        <v>-0.07578274720097168</v>
       </c>
       <c r="D50">
-        <v>-0.03173852003261383</v>
+        <v>-0.03206482087105299</v>
       </c>
       <c r="E50">
-        <v>0.005322694917201875</v>
+        <v>-0.00405335278606356</v>
       </c>
       <c r="F50">
-        <v>0.00573037611938314</v>
+        <v>0.009948841887168028</v>
       </c>
       <c r="G50">
-        <v>-0.02920868402003666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0150725432722381</v>
+      </c>
+      <c r="H50">
+        <v>-0.002108178980788013</v>
+      </c>
+      <c r="I50">
+        <v>0.06606945997291003</v>
+      </c>
+      <c r="J50">
+        <v>0.009206357319197042</v>
+      </c>
+      <c r="K50">
+        <v>-0.05058951141764011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003469484301034435</v>
+        <v>-0.00431773147246398</v>
       </c>
       <c r="C51">
-        <v>-0.0717464783026542</v>
+        <v>-0.03566752047208187</v>
       </c>
       <c r="D51">
-        <v>-0.04200130163399033</v>
+        <v>-0.02637436119655392</v>
       </c>
       <c r="E51">
-        <v>-0.03454275869638513</v>
+        <v>-0.03125285849357899</v>
       </c>
       <c r="F51">
-        <v>0.0008124163767670599</v>
+        <v>-0.02031002122098527</v>
       </c>
       <c r="G51">
-        <v>0.003608832863548947</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01390127625104582</v>
+      </c>
+      <c r="H51">
+        <v>-0.03269868757555389</v>
+      </c>
+      <c r="I51">
+        <v>0.07474871937328707</v>
+      </c>
+      <c r="J51">
+        <v>0.07968060930792796</v>
+      </c>
+      <c r="K51">
+        <v>0.03459243625690545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.02849953051762679</v>
+        <v>0.06067053387765078</v>
       </c>
       <c r="C53">
-        <v>-0.1142882076829973</v>
+        <v>-0.1316033677980802</v>
       </c>
       <c r="D53">
-        <v>-0.06712754163047459</v>
+        <v>-0.05796397072934127</v>
       </c>
       <c r="E53">
-        <v>0.1353416275465679</v>
+        <v>0.05243929841901623</v>
       </c>
       <c r="F53">
-        <v>-0.04726361407516333</v>
+        <v>0.0007841012905582021</v>
       </c>
       <c r="G53">
-        <v>0.08069199027090272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0444260873736323</v>
+      </c>
+      <c r="H53">
+        <v>0.09313426212333864</v>
+      </c>
+      <c r="I53">
+        <v>-0.005513363859815696</v>
+      </c>
+      <c r="J53">
+        <v>-0.003764996738629762</v>
+      </c>
+      <c r="K53">
+        <v>-0.01745996403102224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.00175725370055073</v>
+        <v>0.0158573586984397</v>
       </c>
       <c r="C54">
-        <v>-0.06734154355784573</v>
+        <v>-0.07004217457286198</v>
       </c>
       <c r="D54">
-        <v>-0.01311218509163382</v>
+        <v>-0.01268355459488375</v>
       </c>
       <c r="E54">
-        <v>0.01823237675684877</v>
+        <v>0.0172126075477634</v>
       </c>
       <c r="F54">
-        <v>-0.001222977190169636</v>
+        <v>0.007166128253333387</v>
       </c>
       <c r="G54">
-        <v>-0.03278415449082214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.004841434091249472</v>
+      </c>
+      <c r="H54">
+        <v>-0.02422984483169384</v>
+      </c>
+      <c r="I54">
+        <v>0.0578463596578206</v>
+      </c>
+      <c r="J54">
+        <v>0.02813613625235552</v>
+      </c>
+      <c r="K54">
+        <v>0.02570117315304252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01076722865982871</v>
+        <v>0.03074399800644369</v>
       </c>
       <c r="C55">
-        <v>-0.07586914708060977</v>
+        <v>-0.0832326077209305</v>
       </c>
       <c r="D55">
-        <v>-0.06176880903260262</v>
+        <v>-0.05337927935774653</v>
       </c>
       <c r="E55">
-        <v>0.06429128475835777</v>
+        <v>0.04239031774483251</v>
       </c>
       <c r="F55">
-        <v>-0.03398851416934576</v>
+        <v>0.009025485470854062</v>
       </c>
       <c r="G55">
-        <v>0.02002484442806114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02422345374797556</v>
+      </c>
+      <c r="H55">
+        <v>0.04046870496202515</v>
+      </c>
+      <c r="I55">
+        <v>0.001921676155933271</v>
+      </c>
+      <c r="J55">
+        <v>0.007639266018330915</v>
+      </c>
+      <c r="K55">
+        <v>0.01259941949890176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01014287186723195</v>
+        <v>0.04870756617497498</v>
       </c>
       <c r="C56">
-        <v>-0.1454995452653368</v>
+        <v>-0.1535264446462194</v>
       </c>
       <c r="D56">
-        <v>-0.06925550972545119</v>
+        <v>-0.08120501202444072</v>
       </c>
       <c r="E56">
-        <v>0.106764809971369</v>
+        <v>0.1008367371912805</v>
       </c>
       <c r="F56">
-        <v>-0.06955779806544532</v>
+        <v>-0.01933510590340096</v>
       </c>
       <c r="G56">
-        <v>0.1313519285944486</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.06248542481404499</v>
+      </c>
+      <c r="H56">
+        <v>0.1655089242251954</v>
+      </c>
+      <c r="I56">
+        <v>0.004295468022782484</v>
+      </c>
+      <c r="J56">
+        <v>-0.0307118585974772</v>
+      </c>
+      <c r="K56">
+        <v>-0.001640268590620853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02966501350195544</v>
+        <v>0.01829317748720496</v>
       </c>
       <c r="C58">
-        <v>-0.2942175574691872</v>
+        <v>-0.1770144349180468</v>
       </c>
       <c r="D58">
-        <v>0.005436041612501033</v>
+        <v>-0.04618888193839173</v>
       </c>
       <c r="E58">
-        <v>-0.136043130728682</v>
+        <v>-0.2539546160986845</v>
       </c>
       <c r="F58">
-        <v>0.2535822502224507</v>
+        <v>-0.04402195030400114</v>
       </c>
       <c r="G58">
-        <v>0.05121023104326353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.262841395268675</v>
+      </c>
+      <c r="H58">
+        <v>0.07327010859269202</v>
+      </c>
+      <c r="I58">
+        <v>0.02098646774017096</v>
+      </c>
+      <c r="J58">
+        <v>0.1533248470105896</v>
+      </c>
+      <c r="K58">
+        <v>-0.07773740436421404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.289906207173448</v>
+        <v>0.2888569992960837</v>
       </c>
       <c r="C59">
-        <v>0.0001073607545041339</v>
+        <v>0.05281260896762797</v>
       </c>
       <c r="D59">
-        <v>0.005087123847074898</v>
+        <v>0.006485232530110318</v>
       </c>
       <c r="E59">
-        <v>-0.05514357363640036</v>
+        <v>-0.02134550296132007</v>
       </c>
       <c r="F59">
-        <v>-0.04620025578960042</v>
+        <v>-0.02783387647304789</v>
       </c>
       <c r="G59">
-        <v>0.0123715383459076</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.04181604104817906</v>
+      </c>
+      <c r="H59">
+        <v>0.006823803596030448</v>
+      </c>
+      <c r="I59">
+        <v>-0.02911100900340467</v>
+      </c>
+      <c r="J59">
+        <v>-0.0006769230656174483</v>
+      </c>
+      <c r="K59">
+        <v>-0.03787394293601049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1050205147462514</v>
+        <v>0.1519680284275516</v>
       </c>
       <c r="C60">
-        <v>-0.1435136897216835</v>
+        <v>-0.1573289506460448</v>
       </c>
       <c r="D60">
-        <v>-0.08258556651543257</v>
+        <v>-0.03879083607229534</v>
       </c>
       <c r="E60">
-        <v>0.08740518493818454</v>
+        <v>0.1771667517282389</v>
       </c>
       <c r="F60">
-        <v>-0.1912530473262599</v>
+        <v>0.02342713394002481</v>
       </c>
       <c r="G60">
-        <v>-0.2537217013951996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07023091471389298</v>
+      </c>
+      <c r="H60">
+        <v>-0.2079016919249444</v>
+      </c>
+      <c r="I60">
+        <v>-0.2540458321167145</v>
+      </c>
+      <c r="J60">
+        <v>-0.04218233519493289</v>
+      </c>
+      <c r="K60">
+        <v>0.02916661930372187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.003238928580352623</v>
+        <v>0.024777504878426</v>
       </c>
       <c r="C61">
-        <v>-0.07939707185386745</v>
+        <v>-0.09809836949243168</v>
       </c>
       <c r="D61">
-        <v>-0.06614114381795803</v>
+        <v>-0.05434007196656638</v>
       </c>
       <c r="E61">
-        <v>0.01813155175359403</v>
+        <v>0.01883137880702296</v>
       </c>
       <c r="F61">
-        <v>-0.03115490905206307</v>
+        <v>0.002669172389209515</v>
       </c>
       <c r="G61">
-        <v>-0.08098573891359963</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02143100248649045</v>
+      </c>
+      <c r="H61">
+        <v>-0.03675976962068423</v>
+      </c>
+      <c r="I61">
+        <v>0.05873541065618453</v>
+      </c>
+      <c r="J61">
+        <v>-0.01133495268772255</v>
+      </c>
+      <c r="K61">
+        <v>0.03312376873431114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003040164737072337</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01419738286553508</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.002964965251480137</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01203092669152517</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01891537808981458</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03051604374480874</v>
+      </c>
+      <c r="H62">
+        <v>-0.02023378942509079</v>
+      </c>
+      <c r="I62">
+        <v>0.01970290031495078</v>
+      </c>
+      <c r="J62">
+        <v>-0.0077448194250247</v>
+      </c>
+      <c r="K62">
+        <v>-0.00869071701325279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.00171747343516126</v>
+        <v>0.0269732478441672</v>
       </c>
       <c r="C63">
-        <v>-0.05789816452447775</v>
+        <v>-0.06427442063925501</v>
       </c>
       <c r="D63">
-        <v>-0.03926549829374519</v>
+        <v>-0.05897256147885547</v>
       </c>
       <c r="E63">
-        <v>0.02126321054434434</v>
+        <v>0.0157602269149892</v>
       </c>
       <c r="F63">
-        <v>-0.003490405327781744</v>
+        <v>0.002571955950269285</v>
       </c>
       <c r="G63">
-        <v>-0.008198443448907607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001052781256541754</v>
+      </c>
+      <c r="H63">
+        <v>-0.009703758937227734</v>
+      </c>
+      <c r="I63">
+        <v>0.07205931500308765</v>
+      </c>
+      <c r="J63">
+        <v>0.008650619202953921</v>
+      </c>
+      <c r="K63">
+        <v>0.01416439734843797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002456627301354849</v>
+        <v>0.01751131243298525</v>
       </c>
       <c r="C64">
-        <v>-0.0828904093940338</v>
+        <v>-0.09055514248926647</v>
       </c>
       <c r="D64">
-        <v>-0.06930427195159349</v>
+        <v>-0.03406876706975746</v>
       </c>
       <c r="E64">
-        <v>0.003584989384459759</v>
+        <v>0.008399304536056662</v>
       </c>
       <c r="F64">
-        <v>0.01073310963903189</v>
+        <v>0.03529564030225339</v>
       </c>
       <c r="G64">
-        <v>-0.05771562906512608</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.04427035998317631</v>
+      </c>
+      <c r="H64">
+        <v>-0.06928535287807883</v>
+      </c>
+      <c r="I64">
+        <v>0.046488250249642</v>
+      </c>
+      <c r="J64">
+        <v>0.007367770943096296</v>
+      </c>
+      <c r="K64">
+        <v>0.07869431094399332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.003903332487089705</v>
+        <v>0.03273261440363209</v>
       </c>
       <c r="C65">
-        <v>-0.08857678850878288</v>
+        <v>-0.09261255794985405</v>
       </c>
       <c r="D65">
-        <v>-0.03641307850868732</v>
+        <v>-0.02220623688810446</v>
       </c>
       <c r="E65">
-        <v>-0.02411399996907768</v>
+        <v>-0.00252313098522098</v>
       </c>
       <c r="F65">
-        <v>-0.005182964239197607</v>
+        <v>0.01629908849456603</v>
       </c>
       <c r="G65">
-        <v>-0.07323256007628069</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002295522689981198</v>
+      </c>
+      <c r="H65">
+        <v>-0.08896358848844436</v>
+      </c>
+      <c r="I65">
+        <v>-0.01818394220731544</v>
+      </c>
+      <c r="J65">
+        <v>-0.003531218020551622</v>
+      </c>
+      <c r="K65">
+        <v>0.06248793920607938</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.001356297368569858</v>
+        <v>0.02207733693141453</v>
       </c>
       <c r="C66">
-        <v>-0.1682639269620991</v>
+        <v>-0.1711686473266239</v>
       </c>
       <c r="D66">
-        <v>-0.05107489650586473</v>
+        <v>-0.05081803306794783</v>
       </c>
       <c r="E66">
-        <v>-0.03767284261901352</v>
+        <v>-0.004272556962375126</v>
       </c>
       <c r="F66">
-        <v>-0.02390106757493373</v>
+        <v>-0.01793618545183068</v>
       </c>
       <c r="G66">
-        <v>-0.098332975213863</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0007364827489473207</v>
+      </c>
+      <c r="H66">
+        <v>-0.04553024561430628</v>
+      </c>
+      <c r="I66">
+        <v>0.05932024773651312</v>
+      </c>
+      <c r="J66">
+        <v>-0.01947508137899321</v>
+      </c>
+      <c r="K66">
+        <v>0.06337853788250686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.03220804550231442</v>
+        <v>0.01885937858514325</v>
       </c>
       <c r="C67">
-        <v>-0.02664189105787739</v>
+        <v>-0.05038602800637874</v>
       </c>
       <c r="D67">
-        <v>-0.05934498274550956</v>
+        <v>-0.03935167731815717</v>
       </c>
       <c r="E67">
-        <v>0.03882846172965588</v>
+        <v>-0.02455265623738865</v>
       </c>
       <c r="F67">
-        <v>-0.0261175616543192</v>
+        <v>0.02077077382498918</v>
       </c>
       <c r="G67">
-        <v>-0.06496386541394193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02595100925121707</v>
+      </c>
+      <c r="H67">
+        <v>-0.04356406240211774</v>
+      </c>
+      <c r="I67">
+        <v>0.03378604632337743</v>
+      </c>
+      <c r="J67">
+        <v>0.04992881074305292</v>
+      </c>
+      <c r="K67">
+        <v>-0.04283475593596223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2952146342085051</v>
+        <v>0.2931244046090878</v>
       </c>
       <c r="C68">
-        <v>0.02174725750186638</v>
+        <v>0.07604781878211703</v>
       </c>
       <c r="D68">
-        <v>-0.004842184232540777</v>
+        <v>0.02542431871619105</v>
       </c>
       <c r="E68">
-        <v>-0.02444605801851317</v>
+        <v>0.005930134320805246</v>
       </c>
       <c r="F68">
-        <v>0.000223799708067107</v>
+        <v>-0.001917077776795309</v>
       </c>
       <c r="G68">
-        <v>-0.005222068049909567</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0537817680977842</v>
+      </c>
+      <c r="H68">
+        <v>0.01882235578654759</v>
+      </c>
+      <c r="I68">
+        <v>0.04149996604931575</v>
+      </c>
+      <c r="J68">
+        <v>0.009420495216459358</v>
+      </c>
+      <c r="K68">
+        <v>-0.04506599728535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.00792551258270207</v>
+        <v>0.009882278550565815</v>
       </c>
       <c r="C69">
-        <v>-0.0526347857980928</v>
+        <v>-0.04461977600269623</v>
       </c>
       <c r="D69">
-        <v>-0.05481601726198987</v>
+        <v>-0.02486404089096378</v>
       </c>
       <c r="E69">
-        <v>0.02853696319834084</v>
+        <v>0.0004452796014871482</v>
       </c>
       <c r="F69">
-        <v>-0.00449200706058991</v>
+        <v>-0.007415358419758751</v>
       </c>
       <c r="G69">
-        <v>-0.02903019264904389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01243895797021538</v>
+      </c>
+      <c r="H69">
+        <v>-0.02088629820752147</v>
+      </c>
+      <c r="I69">
+        <v>0.0184575990077313</v>
+      </c>
+      <c r="J69">
+        <v>0.034009705128929</v>
+      </c>
+      <c r="K69">
+        <v>-0.02188138791774914</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.28868439978636</v>
+        <v>0.2745085393732494</v>
       </c>
       <c r="C71">
-        <v>0.03799515035016105</v>
+        <v>0.07977310621416082</v>
       </c>
       <c r="D71">
-        <v>0.009491403733092886</v>
+        <v>0.02239935239945563</v>
       </c>
       <c r="E71">
-        <v>-0.02383095943279798</v>
+        <v>-0.03885673801596504</v>
       </c>
       <c r="F71">
-        <v>0.02042113850968079</v>
+        <v>0.0007371489934884514</v>
       </c>
       <c r="G71">
-        <v>0.006101170329484367</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.05896878124731532</v>
+      </c>
+      <c r="H71">
+        <v>0.01654006930137725</v>
+      </c>
+      <c r="I71">
+        <v>0.04628333633835312</v>
+      </c>
+      <c r="J71">
+        <v>0.03735658790953697</v>
+      </c>
+      <c r="K71">
+        <v>-0.1108418470638531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.006319889913404237</v>
+        <v>0.05277768732905665</v>
       </c>
       <c r="C72">
-        <v>-0.1442359387999292</v>
+        <v>-0.1371656095850989</v>
       </c>
       <c r="D72">
-        <v>-0.07358875159730303</v>
+        <v>-0.04920918941075127</v>
       </c>
       <c r="E72">
-        <v>0.01166583337929672</v>
+        <v>0.06780429435821515</v>
       </c>
       <c r="F72">
-        <v>0.04344421905528368</v>
+        <v>0.01118565657154921</v>
       </c>
       <c r="G72">
-        <v>-0.1189732495475218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0008089233659968088</v>
+      </c>
+      <c r="H72">
+        <v>-0.005573137805622743</v>
+      </c>
+      <c r="I72">
+        <v>0.05600318170134663</v>
+      </c>
+      <c r="J72">
+        <v>0.006447743931346459</v>
+      </c>
+      <c r="K72">
+        <v>0.112640417967568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.06835599870691371</v>
+        <v>0.1569182124103901</v>
       </c>
       <c r="C73">
-        <v>-0.1016085058043121</v>
+        <v>-0.1968016556362996</v>
       </c>
       <c r="D73">
-        <v>-0.1198413531174657</v>
+        <v>-0.08386490101658499</v>
       </c>
       <c r="E73">
-        <v>0.1546086796149528</v>
+        <v>0.171467440791095</v>
       </c>
       <c r="F73">
-        <v>-0.2239829712882222</v>
+        <v>0.05450079012183089</v>
       </c>
       <c r="G73">
-        <v>-0.3297833363232431</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1904008677872008</v>
+      </c>
+      <c r="H73">
+        <v>-0.3141122508280932</v>
+      </c>
+      <c r="I73">
+        <v>-0.3470201998520196</v>
+      </c>
+      <c r="J73">
+        <v>-0.02489245311375582</v>
+      </c>
+      <c r="K73">
+        <v>-0.1300467728367393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01184262760563589</v>
+        <v>0.03876693829166717</v>
       </c>
       <c r="C74">
-        <v>-0.08190550454582685</v>
+        <v>-0.09771505960966539</v>
       </c>
       <c r="D74">
-        <v>-0.07092779078657153</v>
+        <v>-0.04565401653772279</v>
       </c>
       <c r="E74">
-        <v>0.07037346993660713</v>
+        <v>0.0393211674956071</v>
       </c>
       <c r="F74">
-        <v>-0.04456339763855251</v>
+        <v>0.02559668251308618</v>
       </c>
       <c r="G74">
-        <v>0.0413906703097626</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.00535510128307981</v>
+      </c>
+      <c r="H74">
+        <v>0.05220201535607308</v>
+      </c>
+      <c r="I74">
+        <v>0.01535169594582451</v>
+      </c>
+      <c r="J74">
+        <v>0.02456979788648235</v>
+      </c>
+      <c r="K74">
+        <v>0.01349192538157795</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03657240906146565</v>
+        <v>0.06326443351699458</v>
       </c>
       <c r="C75">
-        <v>-0.140133755958856</v>
+        <v>-0.1632113772558529</v>
       </c>
       <c r="D75">
-        <v>-0.07687420877575447</v>
+        <v>-0.08357527567920402</v>
       </c>
       <c r="E75">
-        <v>0.1618721419904529</v>
+        <v>0.05379618941299533</v>
       </c>
       <c r="F75">
-        <v>-0.03628361490096821</v>
+        <v>0.05172010581631742</v>
       </c>
       <c r="G75">
-        <v>0.1764531105274766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.07668922360424044</v>
+      </c>
+      <c r="H75">
+        <v>0.2177910438234102</v>
+      </c>
+      <c r="I75">
+        <v>0.03841077872896653</v>
+      </c>
+      <c r="J75">
+        <v>-0.02995670323826773</v>
+      </c>
+      <c r="K75">
+        <v>-0.1251061181197884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.01237977497992494</v>
+        <v>0.04556318439148599</v>
       </c>
       <c r="C76">
-        <v>-0.104585583049938</v>
+        <v>-0.1257708502711624</v>
       </c>
       <c r="D76">
-        <v>-0.06211237490580471</v>
+        <v>-0.07507925661576681</v>
       </c>
       <c r="E76">
-        <v>0.09149204090646296</v>
+        <v>0.04931168402492805</v>
       </c>
       <c r="F76">
-        <v>-0.05726929763468147</v>
+        <v>0.005439226047374702</v>
       </c>
       <c r="G76">
-        <v>0.05199355869480903</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.06690245938077279</v>
+      </c>
+      <c r="H76">
+        <v>0.07977287026772428</v>
+      </c>
+      <c r="I76">
+        <v>0.0117778067199649</v>
+      </c>
+      <c r="J76">
+        <v>-0.04021596707513515</v>
+      </c>
+      <c r="K76">
+        <v>0.02647985258087029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09291077572025946</v>
+        <v>0.05513778863013277</v>
       </c>
       <c r="C77">
-        <v>-0.3807299971536013</v>
+        <v>-0.4047809207436469</v>
       </c>
       <c r="D77">
-        <v>0.8354482963043428</v>
+        <v>0.8970363499605167</v>
       </c>
       <c r="E77">
-        <v>0.2650080956285669</v>
+        <v>0.007812389840694488</v>
       </c>
       <c r="F77">
-        <v>-0.1266611718780038</v>
+        <v>0.03607396349739921</v>
       </c>
       <c r="G77">
-        <v>-0.04461111106048835</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.06895541841128366</v>
+      </c>
+      <c r="H77">
+        <v>0.02763647481682096</v>
+      </c>
+      <c r="I77">
+        <v>0.07909878270589488</v>
+      </c>
+      <c r="J77">
+        <v>-0.03065858431384613</v>
+      </c>
+      <c r="K77">
+        <v>-0.0242726380546803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03003030373783766</v>
+        <v>0.03846417224294892</v>
       </c>
       <c r="C78">
-        <v>-0.1258548668286018</v>
+        <v>-0.1130575995902307</v>
       </c>
       <c r="D78">
-        <v>-0.186715269809598</v>
+        <v>-0.09590319384617646</v>
       </c>
       <c r="E78">
-        <v>-0.08393033170712785</v>
+        <v>-0.0259144873548282</v>
       </c>
       <c r="F78">
-        <v>-0.1268915610434064</v>
+        <v>-0.0549673344272929</v>
       </c>
       <c r="G78">
-        <v>0.1378319427492034</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.02314264251152602</v>
+      </c>
+      <c r="H78">
+        <v>0.1123149841695868</v>
+      </c>
+      <c r="I78">
+        <v>0.04859831830710025</v>
+      </c>
+      <c r="J78">
+        <v>0.08750859203529354</v>
+      </c>
+      <c r="K78">
+        <v>0.08405489529854693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.02128265901480922</v>
+        <v>0.05766180081833328</v>
       </c>
       <c r="C79">
-        <v>-0.1604096451180946</v>
+        <v>-0.1401754234050123</v>
       </c>
       <c r="D79">
-        <v>-0.1116759648865823</v>
+        <v>-0.06881757453555541</v>
       </c>
       <c r="E79">
-        <v>0.1291115310947988</v>
+        <v>0.04997474717592404</v>
       </c>
       <c r="F79">
-        <v>-0.07433396242818655</v>
+        <v>-0.006159322706219293</v>
       </c>
       <c r="G79">
-        <v>0.2749454684499102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.04030014495152186</v>
+      </c>
+      <c r="H79">
+        <v>0.2584860554767891</v>
+      </c>
+      <c r="I79">
+        <v>0.0508936044528608</v>
+      </c>
+      <c r="J79">
+        <v>0.03962520328679848</v>
+      </c>
+      <c r="K79">
+        <v>-0.05248625397013382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007549280214101099</v>
+        <v>0.02077184125888233</v>
       </c>
       <c r="C80">
-        <v>-0.05057335676327678</v>
+        <v>-0.04356937334596712</v>
       </c>
       <c r="D80">
-        <v>-0.04961411101604348</v>
+        <v>-0.03820669399526844</v>
       </c>
       <c r="E80">
-        <v>-0.03780438035848412</v>
+        <v>-0.01407299868734173</v>
       </c>
       <c r="F80">
-        <v>-0.007269324532120209</v>
+        <v>-0.05933002062582541</v>
       </c>
       <c r="G80">
-        <v>0.0007799232508459188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01058369416811981</v>
+      </c>
+      <c r="H80">
+        <v>-0.07187376160060659</v>
+      </c>
+      <c r="I80">
+        <v>-0.04915320146292997</v>
+      </c>
+      <c r="J80">
+        <v>-0.0003984253313024898</v>
+      </c>
+      <c r="K80">
+        <v>-0.03851327578721123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.002887510566504397</v>
+        <v>0.0170236350681728</v>
       </c>
       <c r="C81">
-        <v>-0.07929735643633631</v>
+        <v>-0.09573646931671059</v>
       </c>
       <c r="D81">
-        <v>-0.07126900070864237</v>
+        <v>-0.05690854662532436</v>
       </c>
       <c r="E81">
-        <v>0.08166174412549299</v>
+        <v>0.03669712311069505</v>
       </c>
       <c r="F81">
-        <v>-0.05453443779045736</v>
+        <v>-0.007497010063145287</v>
       </c>
       <c r="G81">
-        <v>0.07906716869923172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02672658999681692</v>
+      </c>
+      <c r="H81">
+        <v>0.105789517697497</v>
+      </c>
+      <c r="I81">
+        <v>0.06271340374816028</v>
+      </c>
+      <c r="J81">
+        <v>0.03745411162986712</v>
+      </c>
+      <c r="K81">
+        <v>-0.0376806889171931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01528201572236557</v>
+        <v>0.04663233093279365</v>
       </c>
       <c r="C82">
-        <v>-0.07582073398018262</v>
+        <v>-0.1046689576019292</v>
       </c>
       <c r="D82">
-        <v>-0.07014750931476491</v>
+        <v>-0.0650070954343428</v>
       </c>
       <c r="E82">
-        <v>0.09548249069059631</v>
+        <v>0.04092190527640911</v>
       </c>
       <c r="F82">
-        <v>-0.04923326695002268</v>
+        <v>-0.007644896271283782</v>
       </c>
       <c r="G82">
-        <v>0.03694612647215249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.06469452283131344</v>
+      </c>
+      <c r="H82">
+        <v>0.07633880637447754</v>
+      </c>
+      <c r="I82">
+        <v>0.02969685881036437</v>
+      </c>
+      <c r="J82">
+        <v>-0.02521817908527164</v>
+      </c>
+      <c r="K82">
+        <v>-0.005940689115460589</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.0006232537931237537</v>
+        <v>-5.350544105977744e-05</v>
       </c>
       <c r="C83">
-        <v>-0.03012832559091866</v>
+        <v>0.02392390566610849</v>
       </c>
       <c r="D83">
-        <v>0.1255459910907651</v>
+        <v>0.05882716723168625</v>
       </c>
       <c r="E83">
-        <v>-0.6122060517067081</v>
+        <v>0.264010471845698</v>
       </c>
       <c r="F83">
-        <v>-0.6624135057908065</v>
+        <v>-0.9198947011578549</v>
       </c>
       <c r="G83">
-        <v>0.1808535407158881</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.09424508972495965</v>
+      </c>
+      <c r="H83">
+        <v>0.008534791340567503</v>
+      </c>
+      <c r="I83">
+        <v>-0.0430287753101204</v>
+      </c>
+      <c r="J83">
+        <v>-0.1053515988049164</v>
+      </c>
+      <c r="K83">
+        <v>0.05237897737825058</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.01100394367199228</v>
+        <v>0.01375231676084548</v>
       </c>
       <c r="C84">
-        <v>-0.08925015357127496</v>
+        <v>-0.06466627036924147</v>
       </c>
       <c r="D84">
-        <v>-0.0376512044110492</v>
+        <v>-0.08955726278307262</v>
       </c>
       <c r="E84">
-        <v>-0.05646135404320123</v>
+        <v>-0.3891442743541946</v>
       </c>
       <c r="F84">
-        <v>0.1466193976923504</v>
+        <v>-0.07890650048481397</v>
       </c>
       <c r="G84">
-        <v>0.009639889559607446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.1209151074954266</v>
+      </c>
+      <c r="H84">
+        <v>-0.1454925684032361</v>
+      </c>
+      <c r="I84">
+        <v>0.2560616796467982</v>
+      </c>
+      <c r="J84">
+        <v>-0.7851437399847178</v>
+      </c>
+      <c r="K84">
+        <v>-0.1562065895553075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.0002548956416965456</v>
+        <v>0.03114385854362572</v>
       </c>
       <c r="C85">
-        <v>-0.1114021400885779</v>
+        <v>-0.1155904119110353</v>
       </c>
       <c r="D85">
-        <v>-0.07765159408880105</v>
+        <v>-0.08250980897937446</v>
       </c>
       <c r="E85">
-        <v>0.1082443000365149</v>
+        <v>0.08114971276687577</v>
       </c>
       <c r="F85">
-        <v>-0.06718648605959264</v>
+        <v>0.006042112333137666</v>
       </c>
       <c r="G85">
-        <v>0.192943764622451</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.09262042656934141</v>
+      </c>
+      <c r="H85">
+        <v>0.229723397495289</v>
+      </c>
+      <c r="I85">
+        <v>0.03112862073001419</v>
+      </c>
+      <c r="J85">
+        <v>-0.04208949190425299</v>
+      </c>
+      <c r="K85">
+        <v>-0.06593995775643453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.02012874975677924</v>
+        <v>0.01439482949576572</v>
       </c>
       <c r="C86">
-        <v>-0.08109899470826668</v>
+        <v>-0.07756721066964256</v>
       </c>
       <c r="D86">
-        <v>0.004611351367554561</v>
+        <v>-0.03160348687298432</v>
       </c>
       <c r="E86">
-        <v>-0.01274976628625809</v>
+        <v>-0.07944126741902456</v>
       </c>
       <c r="F86">
-        <v>0.01610097160456378</v>
+        <v>-0.03430204694025046</v>
       </c>
       <c r="G86">
-        <v>-0.07301622302200786</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04307608390489803</v>
+      </c>
+      <c r="H86">
+        <v>0.05543627011456674</v>
+      </c>
+      <c r="I86">
+        <v>-0.04397354448075819</v>
+      </c>
+      <c r="J86">
+        <v>0.1252391033916251</v>
+      </c>
+      <c r="K86">
+        <v>-0.1214007563688663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.02609572058935992</v>
+        <v>0.02675077986554748</v>
       </c>
       <c r="C87">
-        <v>-0.1593142174284524</v>
+        <v>-0.1174858033878191</v>
       </c>
       <c r="D87">
-        <v>-0.03950104643029084</v>
+        <v>-0.0206349167879349</v>
       </c>
       <c r="E87">
-        <v>-0.0838700829463168</v>
+        <v>0.007356210598462098</v>
       </c>
       <c r="F87">
-        <v>0.05552831292654945</v>
+        <v>-0.002647189950428772</v>
       </c>
       <c r="G87">
-        <v>0.008002392402005327</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.06283419032954317</v>
+      </c>
+      <c r="H87">
+        <v>0.00380080089027464</v>
+      </c>
+      <c r="I87">
+        <v>0.04986408499298013</v>
+      </c>
+      <c r="J87">
+        <v>-0.01628839678286938</v>
+      </c>
+      <c r="K87">
+        <v>0.09157526875904171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.005927773783828688</v>
+        <v>0.03881967979899021</v>
       </c>
       <c r="C88">
-        <v>-0.03289361737809175</v>
+        <v>-0.05848917120415068</v>
       </c>
       <c r="D88">
-        <v>-0.03688660185242106</v>
+        <v>-0.03930862736575692</v>
       </c>
       <c r="E88">
-        <v>0.04836595375985439</v>
+        <v>0.02921878102890921</v>
       </c>
       <c r="F88">
-        <v>-0.00982947563712544</v>
+        <v>0.01996724985657995</v>
       </c>
       <c r="G88">
-        <v>-0.0181388411238711</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001410877362131197</v>
+      </c>
+      <c r="H88">
+        <v>-0.0119740736054654</v>
+      </c>
+      <c r="I88">
+        <v>0.003003362256541666</v>
+      </c>
+      <c r="J88">
+        <v>0.01473960253772348</v>
+      </c>
+      <c r="K88">
+        <v>0.01804738445384035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4013154905056993</v>
+        <v>0.3897526458358056</v>
       </c>
       <c r="C89">
-        <v>0.07012345119510671</v>
+        <v>0.1196874665106258</v>
       </c>
       <c r="D89">
-        <v>-0.07027234918384938</v>
+        <v>0.03938429671370992</v>
       </c>
       <c r="E89">
-        <v>-0.04968274719297665</v>
+        <v>-0.03486297631352354</v>
       </c>
       <c r="F89">
-        <v>0.09567855304488333</v>
+        <v>0.03360751173417961</v>
       </c>
       <c r="G89">
-        <v>0.02041172365760165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04347429342540543</v>
+      </c>
+      <c r="H89">
+        <v>-0.04587867872359837</v>
+      </c>
+      <c r="I89">
+        <v>0.03228555381651455</v>
+      </c>
+      <c r="J89">
+        <v>-0.06341173016634612</v>
+      </c>
+      <c r="K89">
+        <v>0.7451859074411378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3067315207017456</v>
+        <v>0.3162285048206485</v>
       </c>
       <c r="C90">
-        <v>0.02263383618605994</v>
+        <v>0.0782457880914611</v>
       </c>
       <c r="D90">
-        <v>-0.002862691037901296</v>
+        <v>0.01993534177743588</v>
       </c>
       <c r="E90">
-        <v>-0.07369222797391357</v>
+        <v>-0.0150423864777179</v>
       </c>
       <c r="F90">
-        <v>-0.0422624978955476</v>
+        <v>-0.01280973332623871</v>
       </c>
       <c r="G90">
-        <v>-0.01944074260792439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02631065712311528</v>
+      </c>
+      <c r="H90">
+        <v>-0.003847586645874839</v>
+      </c>
+      <c r="I90">
+        <v>0.0139302908858371</v>
+      </c>
+      <c r="J90">
+        <v>-0.01457174192217976</v>
+      </c>
+      <c r="K90">
+        <v>-0.09704248026627151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02279701131261007</v>
+        <v>0.05599229659461642</v>
       </c>
       <c r="C91">
-        <v>-0.07848456005619366</v>
+        <v>-0.0777381944320179</v>
       </c>
       <c r="D91">
-        <v>-0.06067735095988259</v>
+        <v>-0.05285079485777939</v>
       </c>
       <c r="E91">
-        <v>0.05845466735253078</v>
+        <v>0.06037674577936587</v>
       </c>
       <c r="F91">
-        <v>-0.05884581154700561</v>
+        <v>-0.02700752353195984</v>
       </c>
       <c r="G91">
-        <v>0.07467596462634117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02794378346617265</v>
+      </c>
+      <c r="H91">
+        <v>0.09042122500830133</v>
+      </c>
+      <c r="I91">
+        <v>-0.004330622765806993</v>
+      </c>
+      <c r="J91">
+        <v>-0.02188476085741132</v>
+      </c>
+      <c r="K91">
+        <v>-0.007725126613512406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3828639167904635</v>
+        <v>0.3500654318745929</v>
       </c>
       <c r="C92">
-        <v>0.06655346196386103</v>
+        <v>0.123964887077018</v>
       </c>
       <c r="D92">
-        <v>0.01871041505834562</v>
+        <v>0.05667417738043503</v>
       </c>
       <c r="E92">
-        <v>0.02344264625286256</v>
+        <v>-0.03422297539739765</v>
       </c>
       <c r="F92">
-        <v>0.1202903605940744</v>
+        <v>0.03597061314667027</v>
       </c>
       <c r="G92">
-        <v>0.01111682344083255</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0509170749535586</v>
+      </c>
+      <c r="H92">
+        <v>0.008729501165165347</v>
+      </c>
+      <c r="I92">
+        <v>0.05542643667418035</v>
+      </c>
+      <c r="J92">
+        <v>0.0417377830647577</v>
+      </c>
+      <c r="K92">
+        <v>-0.1398736897375887</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3065085645901092</v>
+        <v>0.3072019500804485</v>
       </c>
       <c r="C93">
-        <v>0.07237081218702333</v>
+        <v>0.1215717451084032</v>
       </c>
       <c r="D93">
-        <v>-0.01110868403756018</v>
+        <v>0.007966650727683924</v>
       </c>
       <c r="E93">
-        <v>-0.06770550621754112</v>
+        <v>-0.04880705806690817</v>
       </c>
       <c r="F93">
-        <v>0.04097416178622475</v>
+        <v>-0.01146600904455753</v>
       </c>
       <c r="G93">
-        <v>0.006939493982059126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02774742190749006</v>
+      </c>
+      <c r="H93">
+        <v>0.03449948066527468</v>
+      </c>
+      <c r="I93">
+        <v>0.02026661603480613</v>
+      </c>
+      <c r="J93">
+        <v>0.02812750581395288</v>
+      </c>
+      <c r="K93">
+        <v>-0.1148101188643075</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02968279031192329</v>
+        <v>0.08298612332326578</v>
       </c>
       <c r="C94">
-        <v>-0.1858651320713573</v>
+        <v>-0.1638831574111278</v>
       </c>
       <c r="D94">
-        <v>-0.1347409806757809</v>
+        <v>-0.1128905894387565</v>
       </c>
       <c r="E94">
-        <v>0.1955776780906389</v>
+        <v>0.09016807337344211</v>
       </c>
       <c r="F94">
-        <v>-0.03681379050913143</v>
+        <v>-0.009243425322241502</v>
       </c>
       <c r="G94">
-        <v>0.5821836057451528</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1116582054097227</v>
+      </c>
+      <c r="H94">
+        <v>0.5589322330618722</v>
+      </c>
+      <c r="I94">
+        <v>-0.09745857300587923</v>
+      </c>
+      <c r="J94">
+        <v>-0.1513123516862883</v>
+      </c>
+      <c r="K94">
+        <v>0.05802558343807556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02012064146216112</v>
+        <v>0.0440175129809067</v>
       </c>
       <c r="C95">
-        <v>-0.1132819142743411</v>
+        <v>-0.1306413472173791</v>
       </c>
       <c r="D95">
-        <v>-0.04847921102822235</v>
+        <v>-0.06562072688076859</v>
       </c>
       <c r="E95">
-        <v>0.04416650297576035</v>
+        <v>0.02680408757826802</v>
       </c>
       <c r="F95">
-        <v>-0.09604867453790947</v>
+        <v>0.03379609456903093</v>
       </c>
       <c r="G95">
-        <v>-0.04721943231755389</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.07660145734973839</v>
+      </c>
+      <c r="H95">
+        <v>-0.05626711328685339</v>
+      </c>
+      <c r="I95">
+        <v>0.07526878379854104</v>
+      </c>
+      <c r="J95">
+        <v>-0.09208472442503039</v>
+      </c>
+      <c r="K95">
+        <v>0.1569727715040596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0002233621427989034</v>
+        <v>0.01990922712040337</v>
       </c>
       <c r="C97">
-        <v>-0.0003174253108709142</v>
+        <v>-0.02369853738356488</v>
       </c>
       <c r="D97">
-        <v>-0.0004482922666206499</v>
+        <v>0.008326510338507696</v>
       </c>
       <c r="E97">
-        <v>0.003644483485228645</v>
+        <v>-0.04887298546958391</v>
       </c>
       <c r="F97">
-        <v>-0.0002087482436197251</v>
+        <v>0.007745861981750518</v>
       </c>
       <c r="G97">
-        <v>-0.006273739414411768</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04266402639149905</v>
+      </c>
+      <c r="H97">
+        <v>-0.03128509647741292</v>
+      </c>
+      <c r="I97">
+        <v>-0.02253722274434874</v>
+      </c>
+      <c r="J97">
+        <v>0.05315124825188264</v>
+      </c>
+      <c r="K97">
+        <v>0.05068325898470631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.08486234141504263</v>
+        <v>0.138724458955702</v>
       </c>
       <c r="C98">
-        <v>-0.1374272465678424</v>
+        <v>-0.1589859540390048</v>
       </c>
       <c r="D98">
-        <v>-0.1424936664266084</v>
+        <v>-0.08888787193375139</v>
       </c>
       <c r="E98">
-        <v>0.1142187432621595</v>
+        <v>0.1878297543004519</v>
       </c>
       <c r="F98">
-        <v>-0.1449301327004828</v>
+        <v>0.0332353565068301</v>
       </c>
       <c r="G98">
-        <v>-0.2024776000525262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1712200707333949</v>
+      </c>
+      <c r="H98">
+        <v>-0.2418169418454232</v>
+      </c>
+      <c r="I98">
+        <v>-0.3421302276075018</v>
+      </c>
+      <c r="J98">
+        <v>-0.0619083959054931</v>
+      </c>
+      <c r="K98">
+        <v>-0.1369549453376264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03122534146149235</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.07018253653754392</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01300433670292632</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.6644679580691669</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.2592772071400096</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.5048806714905476</v>
+      </c>
+      <c r="H99">
+        <v>0.03168867968110512</v>
+      </c>
+      <c r="I99">
+        <v>-0.2414170430610387</v>
+      </c>
+      <c r="J99">
+        <v>0.3062734443737966</v>
+      </c>
+      <c r="K99">
+        <v>0.0902657276804003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.01022635218636851</v>
+        <v>0.01684543278651521</v>
       </c>
       <c r="C101">
-        <v>-0.07789075782622076</v>
+        <v>-0.08157015844794512</v>
       </c>
       <c r="D101">
-        <v>-0.05053406538064502</v>
+        <v>-0.04853583155495408</v>
       </c>
       <c r="E101">
-        <v>-0.01995915311023791</v>
+        <v>0.02036244422607105</v>
       </c>
       <c r="F101">
-        <v>-0.03307176214744523</v>
+        <v>-0.04039932980615525</v>
       </c>
       <c r="G101">
-        <v>-0.113335248049571</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.004041851985558835</v>
+      </c>
+      <c r="H101">
+        <v>-0.1732592104475129</v>
+      </c>
+      <c r="I101">
+        <v>0.2388866843744964</v>
+      </c>
+      <c r="J101">
+        <v>0.08439287058712748</v>
+      </c>
+      <c r="K101">
+        <v>0.0007660660210825621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.004495834430528133</v>
+        <v>0.001994513806149214</v>
       </c>
       <c r="C102">
-        <v>-0.01627253528029246</v>
+        <v>-0.006488732322237732</v>
       </c>
       <c r="D102">
-        <v>0.002178091759183661</v>
+        <v>0.002597697281142019</v>
       </c>
       <c r="E102">
-        <v>0.01755204151317203</v>
+        <v>0.004178184631402028</v>
       </c>
       <c r="F102">
-        <v>-0.01833215599993784</v>
+        <v>-0.0006251432328951033</v>
       </c>
       <c r="G102">
-        <v>0.007419946161294165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.001799267551258955</v>
+      </c>
+      <c r="H102">
+        <v>0.003904341138500898</v>
+      </c>
+      <c r="I102">
+        <v>0.007197683848661017</v>
+      </c>
+      <c r="J102">
+        <v>0.004464227072505905</v>
+      </c>
+      <c r="K102">
+        <v>0.01342866773219159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
